--- a/GenerateApp/table/Table2.xlsx
+++ b/GenerateApp/table/Table2.xlsx
@@ -371,25 +371,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>501</v>
+        <v>809</v>
       </c>
       <c r="B2">
-        <v>923</v>
+        <v>983</v>
       </c>
       <c r="C2">
-        <v>823</v>
+        <v>689</v>
       </c>
       <c r="D2">
-        <v>513</v>
+        <v>644</v>
       </c>
       <c r="E2">
-        <v>742</v>
+        <v>434</v>
       </c>
       <c r="F2">
-        <v>526</v>
+        <v>982</v>
       </c>
       <c r="G2">
-        <v>352</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
